--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1792833.87368232</v>
+        <v>1790946.292165918</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>596867.53580362</v>
+        <v>266057.7413689187</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10694619.82863347</v>
+        <v>10694619.82863346</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>78.40904800482106</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>353.5759586385877</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>22.35153719005459</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>6.621576176023786</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>88.30932981555297</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,13 +953,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>235.7942594739762</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>162.5776147681367</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>178.9253501451547</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>193.0434215961223</v>
+        <v>215.8764815398789</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>155.2114886365809</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>203.1609600883624</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>9.621991078757105</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>115.5269768002181</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1585,16 +1585,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560521</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>146.2787299119458</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>22.01216490429513</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>127.4321567831319</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>203.9312017614396</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>129.1122503131156</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>204.1291651532054</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>101.0041688483414</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750033</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>130.8120409536874</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>62.74236544294445</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>56.25866922412637</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>90.2177913943743</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>93.71057173897918</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571497</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.144232944150693</v>
+        <v>54.76109577523584</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.3616783337368</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3560,7 +3560,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463134</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512.2786438284559</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>512.2786438284559</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>154.0129452217054</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097701</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177354</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,10 +4352,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.483574129469</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.483574129469</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.017815868389</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>898.8784838925776</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,7 +4404,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4419,31 +4419,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>539.7920585923321</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>370.8558756644251</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8558756644251</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="W4" t="n">
-        <v>721.4405234225718</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="X4" t="n">
-        <v>721.4405234225718</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="Y4" t="n">
-        <v>721.4405234225718</v>
+        <v>76.52029211334889</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>532.9757468194221</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C5" t="n">
-        <v>164.0132298790103</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>164.0132298790103</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
         <v>74.81188663097703</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y5" t="n">
-        <v>919.5755868835438</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4650,19 +4650,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8327295799424</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8327295799424</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8327295799424</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8327295799424</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8327295799424</v>
+        <v>218.1627947174723</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1268.68094731003</v>
+        <v>1156.75737613363</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2325.978248184794</v>
+        <v>2247.885861802402</v>
       </c>
       <c r="V8" t="n">
-        <v>1994.915360841223</v>
+        <v>1916.822974458832</v>
       </c>
       <c r="W8" t="n">
-        <v>1642.146705571109</v>
+        <v>1916.822974458832</v>
       </c>
       <c r="X8" t="n">
-        <v>1268.68094731003</v>
+        <v>1543.357216197752</v>
       </c>
       <c r="Y8" t="n">
-        <v>1268.68094731003</v>
+        <v>1543.357216197752</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,19 +5030,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5063,10 +5063,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M12" t="n">
-        <v>1288.32563221405</v>
+        <v>1499.368801821511</v>
       </c>
       <c r="N12" t="n">
-        <v>1632.846287851668</v>
+        <v>1843.889457459129</v>
       </c>
       <c r="O12" t="n">
-        <v>2033.878325127062</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>213.9110074201021</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>986.002216560967</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550801</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181195</v>
+        <v>496.6650364395583</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074201021</v>
+        <v>496.6650364395583</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.9110074201021</v>
+        <v>275.8724572960282</v>
       </c>
     </row>
     <row r="14">
@@ -5273,16 +5273,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5297,28 +5297,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>436.8967109626374</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1050.793780719526</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M15" t="n">
-        <v>1819.161927111988</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>1569.24764349283</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>376.9270045185175</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="C16" t="n">
-        <v>376.9270045185175</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>376.9270045185175</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185175</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185175</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>909.3712637033467</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W16" t="n">
-        <v>619.9540936663861</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X16" t="n">
-        <v>597.7195836620476</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y16" t="n">
-        <v>376.9270045185175</v>
+        <v>244.9733843006353</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,67 +5498,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>1122.004430061687</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M18" t="n">
-        <v>1890.372576454149</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N18" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.78763177146</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.78763177146</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.78763177146</v>
+        <v>446.7290208898078</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.796518881118</v>
+        <v>225.9364417462777</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5832,16 +5832,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M21" t="n">
-        <v>323.6581146605672</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N21" t="n">
-        <v>1128.069692924718</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O21" t="n">
         <v>1797.533454227377</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>841.7907383782456</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>672.8545554503387</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>672.8545554503387</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>524.9414618679456</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>378.0515143700352</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765188</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706319</v>
       </c>
       <c r="W22" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706319</v>
       </c>
       <c r="X22" t="n">
-        <v>1244.231782352015</v>
+        <v>303.4081673726146</v>
       </c>
       <c r="Y22" t="n">
-        <v>1023.439203208485</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5984,55 +5984,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M24" t="n">
-        <v>865.5852378527472</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.809122337732</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.272883640391</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>709.4512536188993</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>420.0340835819386</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>420.0340835819386</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>199.2415044384085</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,10 +6212,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,25 +6224,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6312,19 +6312,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="M27" t="n">
-        <v>1138.699705022018</v>
+        <v>994.7638819868627</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>413.0432218861032</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U28" t="n">
-        <v>1366.782895857208</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="V28" t="n">
-        <v>1112.098407651321</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>822.6812376143603</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>594.6916867163429</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.6916867163429</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6540,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605672</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924718</v>
+        <v>1667.648898594694</v>
       </c>
       <c r="O30" t="n">
         <v>1797.533454227377</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>658.722591120503</v>
+        <v>565.4200295030855</v>
       </c>
       <c r="C31" t="n">
-        <v>545.5472734739668</v>
+        <v>452.2447118565492</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430019</v>
+        <v>395.4177732463206</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430019</v>
+        <v>395.4177732463206</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264623</v>
+        <v>304.2886910297806</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>191.8742346309719</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
         <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962049</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6640,31 +6640,31 @@
         <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1934.970272203396</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1790.811127400319</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.786577471196</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1389.418803966125</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.495181041609</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>956.8388762860188</v>
+        <v>902.6804289818916</v>
       </c>
       <c r="X31" t="n">
-        <v>784.6101906693719</v>
+        <v>730.451743365245</v>
       </c>
       <c r="Y31" t="n">
-        <v>784.6101906693719</v>
+        <v>565.4200295030855</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028583</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605672</v>
+        <v>1645.803509761998</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924718</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,55 +6932,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
         <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1122.004430061687</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M36" t="n">
-        <v>1890.372576454149</v>
+        <v>744.3684618792639</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,22 +7175,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>697.3586906546523</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605672</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,19 +7330,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7403,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,22 +7485,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028587</v>
+        <v>435.8912381133352</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605672</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O42" t="n">
         <v>1797.533454227377</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
         <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,7 +7570,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7728,25 +7728,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2234.893232091767</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2483.646646175729</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2483.646646175729</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7801,13 +7801,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7828,16 +7828,16 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,7 +8775,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9018,10 +9018,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9258,10 +9258,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,19 +9480,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10191,19 +10191,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>273.7927652855384</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10431,13 +10431,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>177.440889949495</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10668,25 +10668,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>380.7816112699632</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>161.7161254339059</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>354.0256793709974</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11391,13 +11391,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>170.2099891031802</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>29.89407122271317</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>20.96809118668205</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>203.697490484742</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>52.3998233988054</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.6534515906552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>37.38131815026196</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>14.45548819888936</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>78.82781133359587</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>155.42531144489</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>189.3952778808836</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>37.15354716552903</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>91.23070601801223</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571505</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>53.61686283108509</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967306</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>899366.8373967309</v>
+        <v>899366.8373967306</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>899366.8373967306</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>899366.8373967306</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="11">
@@ -26314,37 +26314,37 @@
         <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
+        <v>492625.0619185699</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185698</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="F2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="G2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="G2" t="n">
-        <v>469234.8716852504</v>
-      </c>
       <c r="H2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852502</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="K2" t="n">
-        <v>488186.5648143237</v>
+        <v>488186.5648143235</v>
       </c>
       <c r="L2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="M2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="N2" t="n">
         <v>492625.0619185702</v>
@@ -26353,7 +26353,7 @@
         <v>492625.0619185703</v>
       </c>
       <c r="P2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.0619185701</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284556</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086681</v>
+        <v>10342.90680086698</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284563</v>
+        <v>44162.60530284556</v>
       </c>
     </row>
     <row r="4">
@@ -26421,40 +26421,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758488</v>
+        <v>787.7936905759359</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758436</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758825</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905759236</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758825</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477239</v>
+        <v>18952.41620477234</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189641</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189633</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189634</v>
@@ -26473,40 +26473,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="N5" t="n">
-        <v>97715.10582002538</v>
-      </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319261.034540003</v>
+        <v>-319261.0345400031</v>
       </c>
       <c r="C6" t="n">
         <v>270706.8446745414</v>
       </c>
       <c r="D6" t="n">
-        <v>270706.8446745414</v>
+        <v>270706.8446745413</v>
       </c>
       <c r="E6" t="n">
-        <v>-148700.2844309386</v>
+        <v>-148797.7435569104</v>
       </c>
       <c r="F6" t="n">
-        <v>376459.752045958</v>
+        <v>376362.2929199857</v>
       </c>
       <c r="G6" t="n">
-        <v>376459.752045958</v>
+        <v>376362.2929199855</v>
       </c>
       <c r="H6" t="n">
-        <v>376459.7520459579</v>
+        <v>376362.2929199857</v>
       </c>
       <c r="I6" t="n">
-        <v>376459.7520459578</v>
+        <v>376362.2929199855</v>
       </c>
       <c r="J6" t="n">
-        <v>200036.5328533652</v>
+        <v>199939.0737273927</v>
       </c>
       <c r="K6" t="n">
-        <v>328443.3347764829</v>
+        <v>328424.8410385486</v>
       </c>
       <c r="L6" t="n">
-        <v>361360.4683657815</v>
+        <v>361360.4683657814</v>
       </c>
       <c r="M6" t="n">
-        <v>236902.3599328111</v>
+        <v>236902.3599328113</v>
       </c>
       <c r="N6" t="n">
         <v>371703.3751666485</v>
       </c>
       <c r="O6" t="n">
-        <v>371703.3751666485</v>
+        <v>371703.3751666486</v>
       </c>
       <c r="P6" t="n">
-        <v>327540.7698638029</v>
+        <v>327540.7698638028</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964068</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26738,46 +26738,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108366</v>
+        <v>12.92863350108373</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855695</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855695</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>303.5213220674407</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>53.3000871031237</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>157.4804429918827</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>279.9014221605672</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,10 +27619,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>293.6210402567088</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>133.9368412044929</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>17.25436541380057</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>33.22018880486422</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,13 +27907,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>58.18074591216697</v>
+        <v>35.34768596841036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>96.92615468724711</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>83.36203824822863</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>1.463149601477198e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28813,13 +28813,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855695</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31139,7 +31139,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31148,19 +31148,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,22 +31355,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942293</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31613,28 +31613,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31762,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>277.4159737033323</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>153.8167911024559</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,25 +32075,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>216.4869287318324</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>288.1533596602011</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32102,10 +32102,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,31 +32312,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>392.6063366508803</v>
+        <v>66.45019460450766</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32552,7 +32552,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -32561,10 +32561,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>398.5929423100096</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>341.0678223458549</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -32795,28 +32795,28 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>225.9628574215825</v>
+        <v>156.2519421180772</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,28 +33032,28 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>145.3897202375306</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>127.7194943662961</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,22 +33260,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,16 +33427,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,16 +33664,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33740,31 +33740,31 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,25 +33971,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,16 +34138,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34217,13 +34217,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,16 +34384,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34448,34 +34448,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>71.24474816876796</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>600.9870035313139</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>405.082865934741</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>343.110726770052</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>539.4194344924862</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>740.6069989111005</v>
+        <v>414.4508568647279</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>228.7283062629105</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>746.5936045702298</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36221,7 +36221,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>573.9635196818027</v>
+        <v>504.2526043782975</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36613,10 +36613,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>468.9607500655122</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>475.7201566265163</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>228.7283062629105</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>131.196520841094</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36932,7 +36932,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412249</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341606</v>
@@ -37005,10 +37005,10 @@
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043172</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>46.09917786616173</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,19 +37306,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>238.6475773479448</v>
       </c>
       <c r="N36" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>23.16174565403172</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,10 +37710,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>215.4712995911233</v>
       </c>
       <c r="M42" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37880,7 +37880,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38035,10 +38035,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>141.3402618185955</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
